--- a/data/Provincial Forecast.xlsx
+++ b/data/Provincial Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmhcschl.sharepoint.com/sites/RentalMarketReport/Shared Documents/Housing Market Outlook/HMO 2023/Macroeconomic Forecasts/Macro Forecast (Feb 14)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maln\Documents\GitHub\housing_stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF0DA295-E6E4-4541-87D6-214A2994FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569DF4E9-B742-475B-9F0A-C2847FE4E524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10050" yWindow="1305" windowWidth="26370" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" r:id="rId1"/>
@@ -935,12 +935,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,13 +1032,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1052,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1338,11 +1338,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1369,7 +1369,7 @@
     <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>1068.8062269259501</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>1090.1449057761999</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>1128.8506919033</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>1166.63809710136</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1189.3606380650001</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>1209.6215572439401</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1225.3722829020601</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>1232.23395755773</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>1218.45864423782</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1202.45008600341</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>1188.4369484900601</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>1180.0310465453799</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>1170.0052602876999</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>1166.9517400601201</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>1166.67219043557</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>1168.70676668753</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1171.3190259375899</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>1175.4214289086899</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>1179.3261116429801</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>1182.9796127683201</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>1185.78348332666</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>1188.09513574674</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>1190.0249625807201</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>1192.2437221855901</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>1195.02633874566</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>1196.76998436905</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1198.2963131639201</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1199.5446872534401</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1201.14676156156</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>1202.7836437446999</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>1204.26867690364</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>1205.84591037415</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>1206.8496499123701</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>1207.3647283686801</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1207.36880784337</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1207.0737667266501</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>1206.4515758842699</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>1206.5043036422901</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>1206.8061816746699</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>1207.2786868611499</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>1208.8873831347801</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>1209.54926492092</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1210.04372484548</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>1210.35105916619</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>1210.4579162039699</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>1210.35961038716</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1210.0638437278101</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -5446,11 +5446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58CF77C-1328-4A35-B6F6-114C7C92DA07}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -5477,7 +5477,7 @@
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>240</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>22447.875259691598</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>22231.115371449399</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>22314.579610597099</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>22436.191801714202</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>22462.284312818399</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>22592.191872816002</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>22493.130463403599</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>22705.7357955263</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>23079.909189239999</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>22989.324121310801</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>22903.042334853399</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>22875.089673967101</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>22844.6450356858</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>22885.730598932401</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>22929.942055216299</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>22983.447092213999</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>23004.487860958601</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>23056.982884875601</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>23110.751832487502</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>23159.387528552099</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>23166.357065902299</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>23218.6623671778</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>23262.050642957802</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>23309.018905591402</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>23367.569166330501</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>23413.9866487894</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>23464.8860530526</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>23515.9729739664</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>23586.982317087401</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>23639.4942711529</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>23688.594451185701</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>23735.475766474399</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>23775.707393546199</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>23805.774426919299</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>23828.889791469799</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>23846.877585107901</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>23854.4350372222</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>23873.624646717799</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>23896.4180596236</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>23921.500747748501</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>23954.596282677699</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>23976.754352035299</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>23998.0414204269</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>24017.3194675788</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>24031.261049658198</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>24044.893537783501</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>24054.226819688101</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -9558,7 +9558,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -9585,7 +9585,7 @@
     <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>267</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>114.865418074014</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>112.079889868348</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>109.202826719527</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>107.864834460531</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>108.498853759878</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>110.132502704757</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>107.53545555800601</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>107.24089644336</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>109.517581762216</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>110.89096974723699</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>111.643170082233</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>112.60518685358799</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>112.425025080495</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>112.32987422016799</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>112.235486834287</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>112.520400890559</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>113.031292023522</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>113.546182122405</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>113.950928419832</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>114.391616738254</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>114.836591133544</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>115.44626209375799</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>115.949433510421</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>116.516613568398</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>117.157062101265</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>117.948698198827</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>118.603567883586</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>119.27370761889701</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>119.97556920662799</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>120.836495395661</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>121.536897161007</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>122.23589994757801</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>122.948448100216</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>123.805962836847</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>124.51185852594401</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>125.20228048854401</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>125.87659190306</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>126.69649836932599</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>127.37683034930301</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>128.07937913550001</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>128.875204086233</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>129.58693862486601</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>130.262843033195</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>130.938221425949</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>131.621519881534</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>132.27905033326499</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>132.90280387924699</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -13663,12 +13663,12 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="60">
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>71177</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>72241</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>73338</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>74641</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>75587</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>76014</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>77247</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>77942</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>77217</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>77669</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>78182</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>78954</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>81607</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>82641</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>83627</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>84572</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>84008</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>84565</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>85130</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>85435</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>84499</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>83975</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>83815</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>84024</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>83418</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>84118</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>84464</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>85445</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>86195</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>86407</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>86674</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>87426</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>87791</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>87967</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>87727</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>86428</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>86826</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>86830</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>86988</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>85726</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>76308</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>83182</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -15252,11 +15252,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163A664F-9040-4161-812E-831ED79C39DD}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -15285,7 +15285,7 @@
     <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>508.277805730956</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>527.83584325363404</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>543.78366756730895</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>546.55739023375702</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>573.050963756545</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>578.23128842099504</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>587.15109951942202</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>599.491395537367</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>594.70951812312103</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>588.34956015874604</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>586.34451873913201</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>587.69884379698601</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>584.88444987515504</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>587.20255839027595</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>591.11391855639795</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>596.52345670481895</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>604.81702177141403</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>610.99094103639095</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>616.97639651759596</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>623.08077156647198</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>628.98881873563801</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>635.20175700909203</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>641.04796546838895</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>646.93939108328698</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>652.73520389794999</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>658.58479207008099</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>664.46751068337903</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>670.35594070468505</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>676.26536760651004</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>682.233449057141</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>688.12758496617198</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>694.04539549544904</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>699.75532725630603</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>704.62219059016104</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>709.55424578742895</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>714.37902407876402</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>718.98181058247906</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -18522,7 +18522,7 @@
         <v>723.76245756443097</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>728.64010596692401</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>733.81921307945697</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>739.26264334707002</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>744.38686744276401</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>749.41551055925004</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>754.34259539397306</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>759.06288732552798</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>763.72967004354598</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>768.22322344209897</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -19362,13 +19362,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA20983F-E8A5-410D-862F-353F6150FE76}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="60">
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>29304.296458384961</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>29470.626948441262</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>30254.177138167597</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>31010.125390812427</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>31330.157781174035</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>31483.501188557591</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>31870.071068706115</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>32453.037740752832</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>32548.086199739999</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>32781.310671278101</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>33328.34705216423</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>33655.121619847763</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>34661.107692377511</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>34927.738579380508</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>34953.622539944881</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>20112.608450653908</v>
       </c>
       <c r="F17" s="10">
-        <v>15963.549829427691</v>
+        <v>15963.5498294277</v>
       </c>
       <c r="G17" s="10">
         <v>25149.870997059596</v>
@@ -19963,7 +19963,7 @@
         <v>35162.780269207658</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>34367.277930995857</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>34239.666178555643</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>34629.209420251114</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>34664.907731042433</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -20138,7 +20138,7 @@
         <v>35879.927959771027</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>36077.808332205968</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>36131.370499044031</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>36023.279564475582</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>34820.272296631374</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>35307.564324382845</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>35504.232852173693</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>35630.807078898062</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>35563.999077897068</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>35990.806150574084</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>36499.09071594476</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -20523,7 +20523,7 @@
         <v>36355.530689541083</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>35818.64366516818</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -20593,7 +20593,7 @@
         <v>35327.630542145387</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>35126.889133344055</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>35395.287961858354</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>35137.746671357418</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>35403.161357723606</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>35549.767788686775</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>35768.451078692538</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>36315.220197228482</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v>40862.403290434762</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>38457.660631685794</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -20953,15 +20953,15 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="O2" sqref="O2:O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>157</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>3.5375467695648499</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>3.82316565607054</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>3.9769050246214599</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -21376,7 +21376,7 @@
         <v>3.91852862285229</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -21459,7 +21459,7 @@
         <v>3.90954287699667</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>3.6067973739682202</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>3.6949392904922198</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>3.4988825552604301</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>2.94739586080019</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>3.3358722044244602</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>3.6945071676621901</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>3.93500855371741</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>4.2549456745827996</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>4.3472437245475604</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>4.4226966996777604</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>4.4351976561092297</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -22455,7 +22455,7 @@
         <v>4.4677080286789304</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>4.4222479475672198</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -22621,7 +22621,7 @@
         <v>4.3879134102619703</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>4.3580602029364099</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>4.3979732807267604</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>4.3460574899510203</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>4.3192358323026401</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>4.2836602578235601</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -23119,7 +23119,7 @@
         <v>4.2139633907701004</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>4.1797217435073604</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>4.1460160285227303</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>4.1131442633616198</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>4.0542632207746401</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>4.0128658188752304</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -23617,7 +23617,7 @@
         <v>3.97275079019788</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>3.9344855830436098</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>3.8970279140604598</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>3.88021314685645</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -23949,7 +23949,7 @@
         <v>3.8739777976810799</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -24032,7 +24032,7 @@
         <v>3.8739542800598201</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>3.8866693533869499</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -24198,7 +24198,7 @@
         <v>3.88593320885174</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>3.8819483346368902</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>3.87512467143224</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>3.86453290214489</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -24530,7 +24530,7 @@
         <v>3.8550688164664901</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -24613,7 +24613,7 @@
         <v>3.8448735004504999</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>3.8352282675623699</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>3.82620811725696</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -24862,7 +24862,7 @@
         <v>3.8179775057906702</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>3.8099398263217998</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -25038,13 +25038,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBEF237-4967-4192-A02C-4176B9D5EBF4}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K45"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="45">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>184</v>
       </c>
@@ -25079,7 +25079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -25114,7 +25114,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>5.2666666666666604</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>5.7666666666666604</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -25254,7 +25254,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -25324,7 +25324,7 @@
         <v>4.86666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -25359,7 +25359,7 @@
         <v>4.7333333333333298</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -25394,7 +25394,7 @@
         <v>4.93333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -25429,7 +25429,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>4.6666666666666599</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>4.6666666666666599</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>3.86666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -25604,7 +25604,7 @@
         <v>4.3333333333333304</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -25639,7 +25639,7 @@
         <v>4.0333333333333297</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -25709,7 +25709,7 @@
         <v>3.7333333333333298</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>3.7333333333333298</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -25779,7 +25779,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -25814,7 +25814,7 @@
         <v>4.7666666666666604</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>4.7333333333333298</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -25884,7 +25884,7 @@
         <v>5.0666666666666602</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>5.7333333333333298</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -25954,7 +25954,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>6.2333333333333298</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -26024,7 +26024,7 @@
         <v>6.43333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -26059,7 +26059,7 @@
         <v>6.8333333333333304</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -26094,7 +26094,7 @@
         <v>6.36666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>6.4666666666666597</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -26164,7 +26164,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -26199,7 +26199,7 @@
         <v>6.3333333333333304</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>6.5333333333333297</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -26304,7 +26304,7 @@
         <v>6.5333333333333297</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -26339,7 +26339,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>5.5333333333333297</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -26409,7 +26409,7 @@
         <v>5.36666666666666</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -26444,7 +26444,7 @@
         <v>5.43333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -26479,7 +26479,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -26514,7 +26514,7 @@
         <v>6.5666666666666602</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -26549,7 +26549,7 @@
         <v>11.566666666666601</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -26584,7 +26584,7 @@
         <v>7.9666666666666597</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -26628,11 +26628,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE776B33-CC7F-4507-A8CC-7180B09BAE9F}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -26652,7 +26652,7 @@
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>185</v>
       </c>
@@ -26735,7 +26735,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -26818,7 +26818,7 @@
         <v>139.49989174344199</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>140.99677034289499</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>142.80761071624499</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -27067,7 +27067,7 @@
         <v>144.764658991093</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -27150,7 +27150,7 @@
         <v>147.33501376333501</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -27233,7 +27233,7 @@
         <v>151.31968934512901</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -27316,7 +27316,7 @@
         <v>152.84474661226099</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -27399,7 +27399,7 @@
         <v>154.48176211669099</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>155.59866461930201</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -27565,7 +27565,7 @@
         <v>157.66202863223401</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -27648,7 +27648,7 @@
         <v>159.387554213274</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -27731,7 +27731,7 @@
         <v>161.25523373739099</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -27814,7 +27814,7 @@
         <v>163.90509959469401</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -27897,7 +27897,7 @@
         <v>166.061884603084</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>168.25728668980801</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>170.491761484807</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>172.857591465696</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>175.11029038400301</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -28312,7 +28312,7 @@
         <v>177.27178514436301</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -28395,7 +28395,7 @@
         <v>179.37519571717499</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -28478,7 +28478,7 @@
         <v>181.368752276257</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -28561,7 +28561,7 @@
         <v>183.39110527123901</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -28644,7 +28644,7 @@
         <v>185.427276668964</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -28727,7 +28727,7 @@
         <v>187.47753453012899</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -28810,7 +28810,7 @@
         <v>189.52011561253499</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -28893,7 +28893,7 @@
         <v>191.60827677764101</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -28976,7 +28976,7 @@
         <v>193.71982727319801</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -29059,7 +29059,7 @@
         <v>195.854802461313</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -29142,7 +29142,7 @@
         <v>198.00993497137699</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -29225,7 +29225,7 @@
         <v>200.193192099556</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>202.401304211237</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -29391,7 +29391,7 @@
         <v>204.63430825244399</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -29474,7 +29474,7 @@
         <v>206.89935286660801</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -29557,7 +29557,7 @@
         <v>209.17941255125501</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -29640,7 +29640,7 @@
         <v>211.481633589317</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -29723,7 +29723,7 @@
         <v>213.80605459083799</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -29806,7 +29806,7 @@
         <v>216.189101421591</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -29889,7 +29889,7 @@
         <v>218.54348909066201</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -29972,7 +29972,7 @@
         <v>220.90564106243301</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -30055,7 +30055,7 @@
         <v>223.275597695584</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -30138,7 +30138,7 @@
         <v>225.62336745102701</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -30221,7 +30221,7 @@
         <v>228.02107301172501</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -30304,7 +30304,7 @@
         <v>230.43872043996799</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -30387,7 +30387,7 @@
         <v>232.87635182074899</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -30470,7 +30470,7 @@
         <v>235.33401030070601</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -30553,7 +30553,7 @@
         <v>237.81174009474501</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -30636,7 +30636,7 @@
         <v>240.30958649234299</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -30733,9 +30733,9 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="45">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>212</v>
       </c>
@@ -30770,7 +30770,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -30805,7 +30805,7 @@
         <v>118.08534481662501</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -30840,7 +30840,7 @@
         <v>118.14372173258501</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -30875,7 +30875,7 @@
         <v>118.531367448368</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -30910,7 +30910,7 @@
         <v>119.92223604739</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -30945,7 +30945,7 @@
         <v>120.932094777449</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -30980,7 +30980,7 @@
         <v>121.544269219651</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -31015,7 +31015,7 @@
         <v>122.18397619644099</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -31050,7 +31050,7 @@
         <v>123.155912462621</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -31085,7 +31085,7 @@
         <v>123.369592288257</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -31120,7 +31120,7 @@
         <v>123.82646833256199</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -31155,7 +31155,7 @@
         <v>124.13332723759001</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -31190,7 +31190,7 @@
         <v>124.411218102795</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -31225,7 +31225,7 @@
         <v>124.84175464138102</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -31260,7 +31260,7 @@
         <v>125.39366300413901</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>125.94476817982002</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -31330,7 +31330,7 @@
         <v>126.592815820185</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -31365,7 +31365,7 @@
         <v>127.950121178746</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>128.54030845510999</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -31435,7 +31435,7 @@
         <v>129.04229418772499</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -31470,7 +31470,7 @@
         <v>129.30526252025001</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -31505,7 +31505,7 @@
         <v>129.63687629898101</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -31540,7 +31540,7 @@
         <v>130.547243584803</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -31575,7 +31575,7 @@
         <v>131.28856878887402</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -31610,7 +31610,7 @@
         <v>131.56045316305301</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -31645,7 +31645,7 @@
         <v>131.71435407767899</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -31680,7 +31680,7 @@
         <v>132.30161123045602</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -31715,7 +31715,7 @@
         <v>132.55803417944901</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -31750,7 +31750,7 @@
         <v>132.12268114371298</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -31785,7 +31785,7 @@
         <v>133.24270404651199</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>133.582080056336</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -31855,7 +31855,7 @@
         <v>134.51457983664801</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -31890,7 +31890,7 @@
         <v>136.13947222819002</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -31925,7 +31925,7 @@
         <v>136.818383051783</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -31960,7 +31960,7 @@
         <v>137.26975912951201</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>137.66876813482901</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -32030,7 +32030,7 @@
         <v>138.15558061311</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -32065,7 +32065,7 @@
         <v>138.48878187077901</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -32100,7 +32100,7 @@
         <v>140.234487494441</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -32135,7 +32135,7 @@
         <v>140.229128730376</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>140.48905355008301</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -32205,7 +32205,7 @@
         <v>140.68552896010499</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -32240,7 +32240,7 @@
         <v>139.67846429606701</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>141.01647681403401</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -32319,13 +32319,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0B8574-E365-4681-B464-0FC420A548D2}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -32349,7 +32349,7 @@
     <col min="27" max="27" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>213</v>
       </c>
@@ -32432,7 +32432,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -32515,7 +32515,7 @@
         <v>23160.2264425168</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -32598,7 +32598,7 @@
         <v>23118.811391146799</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -32681,7 +32681,7 @@
         <v>23286.809642261102</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>23381.7727819744</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -32847,7 +32847,7 @@
         <v>23404.697159340001</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -32930,7 +32930,7 @@
         <v>23431.497172467101</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -33013,7 +33013,7 @@
         <v>23357.363990264501</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -33096,7 +33096,7 @@
         <v>23506.202472318899</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -33179,7 +33179,7 @@
         <v>23684.4863125919</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>23763.265270112999</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -33345,7 +33345,7 @@
         <v>23833.708300798498</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -33428,7 +33428,7 @@
         <v>23891.405149948299</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -33511,7 +33511,7 @@
         <v>23882.324044577199</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -33594,7 +33594,7 @@
         <v>23929.039509006401</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -33677,7 +33677,7 @@
         <v>23984.592432889302</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -33760,7 +33760,7 @@
         <v>24031.387456730401</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -33843,7 +33843,7 @@
         <v>24094.0107031558</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>24125.333711088701</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -34009,7 +34009,7 @@
         <v>24165.991385243698</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -34092,7 +34092,7 @@
         <v>24205.607605077799</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>24235.713264965299</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -34258,7 +34258,7 @@
         <v>24271.9338895047</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -34341,7 +34341,7 @@
         <v>24311.071074207899</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -34424,7 +34424,7 @@
         <v>24351.237013529098</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -34507,7 +34507,7 @@
         <v>24393.356410746699</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -34590,7 +34590,7 @@
         <v>24434.536813668699</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -34673,7 +34673,7 @@
         <v>24480.502500968199</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -34756,7 +34756,7 @@
         <v>24526.953656572699</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -34839,7 +34839,7 @@
         <v>24584.719440008299</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -34922,7 +34922,7 @@
         <v>24628.377778497699</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -35005,7 +35005,7 @@
         <v>24668.365720617301</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -35088,7 +35088,7 @@
         <v>24706.169995005901</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -35171,7 +35171,7 @@
         <v>24738.300642178801</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -35254,7 +35254,7 @@
         <v>24765.978568091501</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -35337,7 +35337,7 @@
         <v>24789.7687699743</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -35420,7 +35420,7 @@
         <v>24809.6852946445</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -35503,7 +35503,7 @@
         <v>24818.952288877601</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -35586,7 +35586,7 @@
         <v>24838.927361320199</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -35669,7 +35669,7 @@
         <v>24861.617159766502</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -35752,7 +35752,7 @@
         <v>24885.7980150029</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -35835,7 +35835,7 @@
         <v>24917.878730524499</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -35918,7 +35918,7 @@
         <v>24938.2836654163</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -36001,7 +36001,7 @@
         <v>24957.467646044301</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -36084,7 +36084,7 @@
         <v>24974.845967571498</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -36167,7 +36167,7 @@
         <v>24986.990197564501</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -36250,7 +36250,7 @@
         <v>24999.165794771801</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -36333,7 +36333,7 @@
         <v>25007.005639957901</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -36423,26 +36423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ce1adc9-595d-4b6e-94c7-d592be107ef0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d66cf783-2e90-4651-8632-adfaa1cef5ce" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072F9387A9CEAC24DA659C20634E92B53" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9cf1db52dfebb7edac726204f2e3fa36">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ce1adc9-595d-4b6e-94c7-d592be107ef0" xmlns:ns3="d66cf783-2e90-4651-8632-adfaa1cef5ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02eb336d29532bc55c4d63e657893691" ns2:_="" ns3:_="">
     <xsd:import namespace="3ce1adc9-595d-4b6e-94c7-d592be107ef0"/>
@@ -36685,14 +36665,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ce1adc9-595d-4b6e-94c7-d592be107ef0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d66cf783-2e90-4651-8632-adfaa1cef5ce" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BACB5E-6AA9-4FBA-B2BB-818D0D9F0B05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1632D3-CDF3-497F-9CCE-683B559AC95D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ce1adc9-595d-4b6e-94c7-d592be107ef0"/>
+    <ds:schemaRef ds:uri="d66cf783-2e90-4651-8632-adfaa1cef5ce"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7998A9E7-D06E-4BA6-BE09-F050D475A87C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7998A9E7-D06E-4BA6-BE09-F050D475A87C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1632D3-CDF3-497F-9CCE-683B559AC95D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BACB5E-6AA9-4FBA-B2BB-818D0D9F0B05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ce1adc9-595d-4b6e-94c7-d592be107ef0"/>
+    <ds:schemaRef ds:uri="d66cf783-2e90-4651-8632-adfaa1cef5ce"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>